--- a/documents/smallWorld.xlsx
+++ b/documents/smallWorld.xlsx
@@ -5,31 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benton\Desktop\Диплом\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\graphs\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1207F8-6952-48B5-8920-EE02F2D29201}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B885E79F-A705-43A9-A6E5-D821F7FF47CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17835" yWindow="2520" windowWidth="21600" windowHeight="8700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Лист1!$A$3:$A$21</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Лист1!$B$2</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Лист1!$B$3:$B$21</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Лист1!$C$2</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Лист1!$C$3:$C$21</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Лист1!$D$2</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Лист1!$D$3:$D$21</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Лист1!$E$2</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Лист1!$E$3:$E$21</definedName>
-  </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -37,12 +31,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="11">
-  <si>
-    <t>Errors</t>
-  </si>
-  <si>
-    <t>Success</t>
-  </si>
   <si>
     <t>min</t>
   </si>
@@ -62,26 +50,39 @@
     <t>random</t>
   </si>
   <si>
-    <t>Deleted nodes</t>
+    <t>Количество соседей в узле в кольцевой топологии</t>
   </si>
   <si>
-    <t>Intactness</t>
+    <t>Удаленные вершины</t>
   </si>
   <si>
-    <t>The number of neighbors at a node in a ring topology</t>
+    <t>Интактность</t>
+  </si>
+  <si>
+    <t>Успешность</t>
+  </si>
+  <si>
+    <t>Ошибки</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -104,8 +105,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -207,7 +210,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Deleted nodes</c:v>
+                  <c:v>Удаленные вершины</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -294,7 +297,7 @@
             <c:numRef>
               <c:f>Лист1!$B$3:$B$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>2.4169999999999998</c:v>
@@ -372,7 +375,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Intactness</c:v>
+                  <c:v>Интактность</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -459,7 +462,7 @@
             <c:numRef>
               <c:f>Лист1!$C$3:$C$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>97.9714148956337</c:v>
@@ -537,7 +540,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Success</c:v>
+                  <c:v>Успешность</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -624,7 +627,7 @@
             <c:numRef>
               <c:f>Лист1!$D$3:$D$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>97.632030901972499</c:v>
@@ -702,7 +705,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Errors</c:v>
+                  <c:v>Ошибки</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -789,7 +792,7 @@
             <c:numRef>
               <c:f>Лист1!$E$3:$E$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1063,7 +1066,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1272,7 +1275,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Deleted nodes</c:v>
+                  <c:v>Удаленные вершины</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1359,7 +1362,7 @@
             <c:numRef>
               <c:f>Лист1!$B$29:$B$47</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>24.71</c:v>
@@ -1437,7 +1440,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Intactness</c:v>
+                  <c:v>Интактность</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1524,7 +1527,7 @@
             <c:numRef>
               <c:f>Лист1!$C$29:$C$47</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>75.399983790939089</c:v>
@@ -1602,7 +1605,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Success</c:v>
+                  <c:v>Успешность</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1689,7 +1692,7 @@
             <c:numRef>
               <c:f>Лист1!$D$29:$D$47</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>81.368664005258893</c:v>
@@ -1767,7 +1770,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Errors</c:v>
+                  <c:v>Ошибки</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1854,7 +1857,7 @@
             <c:numRef>
               <c:f>Лист1!$E$29:$E$47</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2128,7 +2131,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2337,7 +2340,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Deleted nodes</c:v>
+                  <c:v>Удаленные вершины</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2424,7 +2427,7 @@
             <c:numRef>
               <c:f>Лист1!$B$55:$B$73</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>14.022</c:v>
@@ -2502,7 +2505,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Intactness</c:v>
+                  <c:v>Интактность</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2589,7 +2592,7 @@
             <c:numRef>
               <c:f>Лист1!$C$55:$C$73</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>83.760987959907794</c:v>
@@ -2667,7 +2670,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Success</c:v>
+                  <c:v>Успешность</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2754,7 +2757,7 @@
             <c:numRef>
               <c:f>Лист1!$D$55:$D$73</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>88.255034268261696</c:v>
@@ -2832,7 +2835,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Errors</c:v>
+                  <c:v>Ошибки</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2919,7 +2922,7 @@
             <c:numRef>
               <c:f>Лист1!$E$55:$E$73</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -3199,7 +3202,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3408,7 +3411,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Deleted nodes</c:v>
+                  <c:v>Удаленные вершины</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3495,7 +3498,7 @@
             <c:numRef>
               <c:f>Лист1!$B$81:$B$99</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>18.888000000000002</c:v>
@@ -3573,7 +3576,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Intactness</c:v>
+                  <c:v>Интактность</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3660,7 +3663,7 @@
             <c:numRef>
               <c:f>Лист1!$C$81:$C$99</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>89.128018147972</c:v>
@@ -3738,7 +3741,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Success</c:v>
+                  <c:v>Успешность</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3825,7 +3828,7 @@
             <c:numRef>
               <c:f>Лист1!$D$81:$D$99</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>83.165499932210992</c:v>
@@ -3903,7 +3906,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Errors</c:v>
+                  <c:v>Ошибки</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3990,7 +3993,7 @@
             <c:numRef>
               <c:f>Лист1!$E$81:$E$99</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4270,7 +4273,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4479,7 +4482,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Deleted nodes</c:v>
+                  <c:v>Удаленные вершины</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4566,7 +4569,7 @@
             <c:numRef>
               <c:f>Лист1!$B$113:$B$131</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>21.913</c:v>
@@ -4644,7 +4647,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Intactness</c:v>
+                  <c:v>Интактность</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4731,7 +4734,7 @@
             <c:numRef>
               <c:f>Лист1!$C$113:$C$131</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>89.926268476903701</c:v>
@@ -4809,7 +4812,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Success</c:v>
+                  <c:v>Успешность</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4896,7 +4899,7 @@
             <c:numRef>
               <c:f>Лист1!$D$113:$D$131</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>80.294456788655992</c:v>
@@ -4974,7 +4977,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Errors</c:v>
+                  <c:v>Ошибки</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5061,7 +5064,7 @@
             <c:numRef>
               <c:f>Лист1!$E$113:$E$131</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -5336,7 +5339,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8689,1759 +8692,1953 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E131"/>
+  <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:E47"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2.4169999999999998</v>
+      </c>
+      <c r="C3" s="2">
+        <v>97.9714148956337</v>
+      </c>
+      <c r="D3" s="2">
+        <v>97.632030901972499</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <f>AVERAGE(C3:C21)</f>
+        <v>95.045351634751597</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2">
+        <v>7.5419999999999989</v>
+      </c>
+      <c r="C4" s="2">
+        <v>97.860171131481906</v>
+      </c>
+      <c r="D4" s="2">
+        <v>92.619385893263598</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <f>AVERAGE(C29:C47)</f>
+        <v>59.095204711813089</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2">
+        <v>11.128999999999998</v>
+      </c>
+      <c r="C5" s="2">
+        <v>97.774766321315994</v>
+      </c>
+      <c r="D5" s="2">
+        <v>89.118646256100703</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <f>AVERAGE(C55:C73)</f>
+        <v>64.832308115643372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2">
+        <v>16.550999999999998</v>
+      </c>
+      <c r="C6" s="2">
+        <v>97.631897152644498</v>
+      </c>
+      <c r="D6" s="2">
+        <v>83.840944702265801</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <f>AVERAGE(C81:C99)</f>
+        <v>67.533730065308163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2">
+        <v>20.251000000000001</v>
+      </c>
+      <c r="C7" s="2">
+        <v>97.523382187812402</v>
+      </c>
+      <c r="D7" s="2">
+        <v>80.250539873146096</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <f>AVERAGE(C113:C131)</f>
+        <v>63.384240751666297</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2">
+        <v>25.788</v>
+      </c>
+      <c r="C8" s="2">
+        <v>97.341042574979198</v>
+      </c>
+      <c r="D8" s="2">
+        <v>74.897691940764304</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <f>AVERAGE(G3:G7)</f>
+        <v>69.978167055836508</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>35</v>
+      </c>
+      <c r="B9" s="2">
+        <v>29.535</v>
+      </c>
+      <c r="C9" s="2">
+        <v>97.201572913025601</v>
+      </c>
+      <c r="D9" s="2">
+        <v>71.2915154401378</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>40</v>
+      </c>
+      <c r="B10" s="2">
+        <v>35.237000000000002</v>
+      </c>
+      <c r="C10" s="2">
+        <v>96.958989149726705</v>
+      </c>
+      <c r="D10" s="2">
+        <v>65.834560993310802</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45</v>
+      </c>
+      <c r="B11" s="2">
+        <v>38.956000000000003</v>
+      </c>
+      <c r="C11" s="2">
+        <v>96.776664711463795</v>
+      </c>
+      <c r="D11" s="2">
+        <v>62.299682495002095</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>50</v>
+      </c>
+      <c r="B12" s="2">
+        <v>44.658000000000001</v>
+      </c>
+      <c r="C12" s="2">
+        <v>96.45039178373051</v>
+      </c>
+      <c r="D12" s="2">
+        <v>56.9271840372216</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>55</v>
+      </c>
+      <c r="B13" s="2">
+        <v>48.533999999999999</v>
+      </c>
+      <c r="C13" s="2">
+        <v>96.188200196267204</v>
+      </c>
+      <c r="D13" s="2">
+        <v>53.316018916743602</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>60</v>
+      </c>
+      <c r="B14" s="2">
+        <v>54.186999999999998</v>
+      </c>
+      <c r="C14" s="2">
+        <v>95.727474717286896</v>
+      </c>
+      <c r="D14" s="2">
+        <v>48.128153274943699</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>65</v>
+      </c>
+      <c r="B15" s="2">
+        <v>58.027999999999999</v>
+      </c>
+      <c r="C15" s="2">
+        <v>95.345438398281999</v>
+      </c>
+      <c r="D15" s="2">
+        <v>44.672949006244899</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>70</v>
+      </c>
+      <c r="B16" s="2">
+        <v>63.847000000000001</v>
+      </c>
+      <c r="C16" s="2">
+        <v>94.616634548838292</v>
+      </c>
+      <c r="D16" s="2">
+        <v>39.590117339603097</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>75</v>
+      </c>
+      <c r="B17" s="2">
+        <v>67.733000000000004</v>
+      </c>
+      <c r="C17" s="2">
+        <v>93.987598074332496</v>
+      </c>
+      <c r="D17" s="2">
+        <v>36.339380196312298</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>80</v>
+      </c>
+      <c r="B18" s="2">
+        <v>73.555999999999997</v>
+      </c>
+      <c r="C18" s="2">
+        <v>92.710842934888902</v>
+      </c>
+      <c r="D18" s="2">
+        <v>31.805612370813002</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>85</v>
+      </c>
+      <c r="B19" s="2">
+        <v>77.613</v>
+      </c>
+      <c r="C19" s="2">
+        <v>91.444446141695408</v>
+      </c>
+      <c r="D19" s="2">
+        <v>29.027222016045901</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>90</v>
+      </c>
+      <c r="B20" s="2">
+        <v>83.802000000000007</v>
+      </c>
+      <c r="C20" s="2">
+        <v>88.3648063005067</v>
+      </c>
+      <c r="D20" s="2">
+        <v>25.948525024049303</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>95</v>
+      </c>
+      <c r="B21" s="2">
+        <v>88.521000000000001</v>
+      </c>
+      <c r="C21" s="2">
+        <v>83.9859469263682</v>
+      </c>
+      <c r="D21" s="2">
+        <v>25.6547999213095</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>5</v>
+      </c>
+      <c r="B29" s="2">
+        <v>24.71</v>
+      </c>
+      <c r="C29" s="2">
+        <v>75.399983790939089</v>
+      </c>
+      <c r="D29" s="2">
+        <v>81.368664005258893</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>10</v>
+      </c>
+      <c r="B30" s="2">
+        <v>56.243000000000002</v>
+      </c>
+      <c r="C30" s="2">
+        <v>73.292150557296097</v>
+      </c>
+      <c r="D30" s="2">
+        <v>58.778295762059898</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>15</v>
+      </c>
+      <c r="B31" s="2">
+        <v>65.061000000000007</v>
+      </c>
+      <c r="C31" s="2">
+        <v>70.122982856697504</v>
+      </c>
+      <c r="D31" s="2">
+        <v>54.377286123603895</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>20</v>
+      </c>
+      <c r="B32" s="2">
+        <v>72.909000000000006</v>
+      </c>
+      <c r="C32" s="2">
+        <v>66.10156792905309</v>
+      </c>
+      <c r="D32" s="2">
+        <v>51.806007838606604</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>25</v>
+      </c>
+      <c r="B33" s="2">
+        <v>76.412999999999997</v>
+      </c>
+      <c r="C33" s="2">
+        <v>64.7175410731965</v>
+      </c>
+      <c r="D33" s="2">
+        <v>50.547385339738206</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>30</v>
+      </c>
+      <c r="B34" s="2">
+        <v>80.406000000000006</v>
+      </c>
+      <c r="C34" s="2">
+        <v>62.730599245168392</v>
+      </c>
+      <c r="D34" s="2">
+        <v>49.560834370929804</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>35</v>
+      </c>
+      <c r="B35" s="2">
+        <v>81.701999999999998</v>
+      </c>
+      <c r="C35" s="2">
+        <v>60.767040330206001</v>
+      </c>
+      <c r="D35" s="2">
+        <v>50.352112709415096</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>40</v>
+      </c>
+      <c r="B36" s="2">
+        <v>85.144999999999996</v>
+      </c>
+      <c r="C36" s="2">
+        <v>58.592688083713895</v>
+      </c>
+      <c r="D36" s="2">
+        <v>50.111255731121794</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>45</v>
+      </c>
+      <c r="B37" s="2">
+        <v>85.397000000000006</v>
+      </c>
+      <c r="C37" s="2">
+        <v>56.857124430173201</v>
+      </c>
+      <c r="D37" s="2">
+        <v>51.4457214503649</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>50</v>
+      </c>
+      <c r="B38" s="2">
+        <v>87.025999999999996</v>
+      </c>
+      <c r="C38" s="2">
+        <v>56.524235026001399</v>
+      </c>
+      <c r="D38" s="2">
+        <v>50.809219226271892</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>55</v>
+      </c>
+      <c r="B39" s="2">
+        <v>88.759</v>
+      </c>
+      <c r="C39" s="2">
+        <v>56.638144055734799</v>
+      </c>
+      <c r="D39" s="2">
+        <v>49.728549717570196</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>60</v>
+      </c>
+      <c r="B40" s="2">
+        <v>90.608000000000004</v>
+      </c>
+      <c r="C40" s="2">
+        <v>53.455442096152808</v>
+      </c>
+      <c r="D40" s="2">
+        <v>51.565093025517704</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>65</v>
+      </c>
+      <c r="B41" s="2">
+        <v>90.855000000000004</v>
+      </c>
+      <c r="C41" s="2">
+        <v>52.939205481088003</v>
+      </c>
+      <c r="D41" s="2">
+        <v>51.902084860157402</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>70</v>
+      </c>
+      <c r="B42" s="2">
+        <v>91.697999999999993</v>
+      </c>
+      <c r="C42" s="2">
+        <v>52.606260878582198</v>
+      </c>
+      <c r="D42" s="2">
+        <v>51.761110899557607</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>75</v>
+      </c>
+      <c r="B43" s="2">
+        <v>92.147000000000006</v>
+      </c>
+      <c r="C43" s="2">
+        <v>53.351372524801398</v>
+      </c>
+      <c r="D43" s="2">
+        <v>50.838310759571101</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>80</v>
+      </c>
+      <c r="B44" s="2">
+        <v>93.230999999999995</v>
+      </c>
+      <c r="C44" s="2">
+        <v>52.684263887326999</v>
+      </c>
+      <c r="D44" s="2">
+        <v>50.881933935206106</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>85</v>
+      </c>
+      <c r="B45" s="2">
+        <v>94.186000000000007</v>
+      </c>
+      <c r="C45" s="2">
+        <v>52.520069591243001</v>
+      </c>
+      <c r="D45" s="2">
+        <v>50.533447254791795</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>90</v>
+      </c>
+      <c r="B46" s="2">
+        <v>95.503</v>
+      </c>
+      <c r="C46" s="2">
+        <v>51.383495464852402</v>
+      </c>
+      <c r="D46" s="2">
+        <v>50.927220326202004</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>95</v>
+      </c>
+      <c r="B47" s="2">
+        <v>96.228999999999999</v>
+      </c>
+      <c r="C47" s="2">
+        <v>52.124722222221799</v>
+      </c>
+      <c r="D47" s="2">
+        <v>49.840901052778101</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>5</v>
+      </c>
+      <c r="B55" s="2">
+        <v>14.022</v>
+      </c>
+      <c r="C55" s="2">
+        <v>83.760987959907794</v>
+      </c>
+      <c r="D55" s="2">
+        <v>88.255034268261696</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>10</v>
+      </c>
+      <c r="B56" s="2">
+        <v>43.075000000000003</v>
+      </c>
+      <c r="C56" s="2">
+        <v>88.264487297482603</v>
+      </c>
+      <c r="D56" s="2">
+        <v>61.980072096609298</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>15</v>
+      </c>
+      <c r="B57" s="2">
+        <v>62.484999999999999</v>
+      </c>
+      <c r="C57" s="2">
+        <v>79.866260123426898</v>
+      </c>
+      <c r="D57" s="2">
+        <v>50.095567361876604</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>20</v>
+      </c>
+      <c r="B58" s="2">
+        <v>75.727999999999994</v>
+      </c>
+      <c r="C58" s="2">
+        <v>77.863521015612406</v>
+      </c>
+      <c r="D58" s="2">
+        <v>41.035512805296996</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>25</v>
+      </c>
+      <c r="B59" s="2">
+        <v>81.562124248497</v>
+      </c>
+      <c r="C59" s="2">
+        <v>73.214540817880604</v>
+      </c>
+      <c r="D59" s="2">
+        <v>40.284665250153601</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>30</v>
+      </c>
+      <c r="B60" s="2">
+        <v>86.861306532663306</v>
+      </c>
+      <c r="C60" s="2">
+        <v>69.685189500525297</v>
+      </c>
+      <c r="D60" s="2">
+        <v>39.470533940081296</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>35</v>
+      </c>
+      <c r="B61" s="2">
+        <v>89.287449392712503</v>
+      </c>
+      <c r="C61" s="2">
+        <v>68.128576639974199</v>
+      </c>
+      <c r="D61" s="2">
+        <v>39.169731610607499</v>
+      </c>
+      <c r="E61" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>40</v>
+      </c>
+      <c r="B62" s="2">
+        <v>91.667370644139297</v>
+      </c>
+      <c r="C62" s="2">
+        <v>65.516363396085694</v>
+      </c>
+      <c r="D62" s="2">
+        <v>39.942872333148799</v>
+      </c>
+      <c r="E62" s="2">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>45</v>
+      </c>
+      <c r="B63" s="2">
+        <v>92.890271493212595</v>
+      </c>
+      <c r="C63" s="2">
+        <v>64.343031193824501</v>
+      </c>
+      <c r="D63" s="2">
+        <v>40.231583637093799</v>
+      </c>
+      <c r="E63" s="2">
+        <v>11.600000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>50</v>
+      </c>
+      <c r="B64" s="2">
+        <v>94.3634175691937</v>
+      </c>
+      <c r="C64" s="2">
+        <v>61.859021218468598</v>
+      </c>
+      <c r="D64" s="2">
+        <v>41.627713503400201</v>
+      </c>
+      <c r="E64" s="2">
+        <v>16.900000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>55</v>
+      </c>
+      <c r="B65" s="2">
+        <v>94.959514170040407</v>
+      </c>
+      <c r="C65" s="2">
+        <v>60.244869111703302</v>
+      </c>
+      <c r="D65" s="2">
+        <v>42.791764979149697</v>
+      </c>
+      <c r="E65" s="2">
+        <v>25.900000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>60</v>
+      </c>
+      <c r="B66" s="2">
+        <v>95.638400000000004</v>
+      </c>
+      <c r="C66" s="2">
+        <v>58.593159715480802</v>
+      </c>
+      <c r="D66" s="2">
+        <v>43.9624395386695</v>
+      </c>
+      <c r="E66" s="2">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2">
+        <v>96.177024482109204</v>
+      </c>
+      <c r="C67" s="2">
+        <v>57.957285487955204</v>
+      </c>
+      <c r="D67" s="2">
+        <v>44.2584073470832</v>
+      </c>
+      <c r="E67" s="2">
+        <v>46.9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>70</v>
+      </c>
+      <c r="B68" s="2">
+        <v>96.552825552825496</v>
+      </c>
+      <c r="C68" s="2">
+        <v>55.962117807355803</v>
+      </c>
+      <c r="D68" s="2">
+        <v>45.966994017797006</v>
+      </c>
+      <c r="E68" s="2">
+        <v>59.3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>75</v>
+      </c>
+      <c r="B69" s="2">
+        <v>96.809523809523796</v>
+      </c>
+      <c r="C69" s="2">
+        <v>55.7066397987765</v>
+      </c>
+      <c r="D69" s="2">
+        <v>46.070667280517704</v>
+      </c>
+      <c r="E69" s="2">
+        <v>64.3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>80</v>
+      </c>
+      <c r="B70" s="2">
+        <v>97.0390625</v>
+      </c>
+      <c r="C70" s="2">
+        <v>54.772649163832199</v>
+      </c>
+      <c r="D70" s="2">
+        <v>46.849134745003099</v>
+      </c>
+      <c r="E70" s="2">
+        <v>74.400000000000006</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>85</v>
+      </c>
+      <c r="B71" s="2">
+        <v>97.335051546391696</v>
+      </c>
+      <c r="C71" s="2">
+        <v>53.599942726231397</v>
+      </c>
+      <c r="D71" s="2">
+        <v>47.828468118586102</v>
+      </c>
+      <c r="E71" s="2">
+        <v>80.600000000000009</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>90</v>
+      </c>
+      <c r="B72" s="2">
+        <v>97.743902439024396</v>
+      </c>
+      <c r="C72" s="2">
+        <v>51.168021680216803</v>
+      </c>
+      <c r="D72" s="2">
+        <v>49.986378808909997</v>
+      </c>
+      <c r="E72" s="2">
+        <v>91.8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>95</v>
+      </c>
+      <c r="B73" s="2">
+        <v>97.764705882352899</v>
+      </c>
+      <c r="C73" s="2">
+        <v>51.307189542483599</v>
+      </c>
+      <c r="D73" s="2">
+        <v>49.839677047289499</v>
+      </c>
+      <c r="E73" s="2">
+        <v>98.3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D80" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E80" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>5</v>
+      </c>
+      <c r="B81" s="2">
+        <v>18.888000000000002</v>
+      </c>
+      <c r="C81" s="2">
+        <v>89.128018147972</v>
+      </c>
+      <c r="D81" s="2">
+        <v>83.165499932210992</v>
+      </c>
+      <c r="E81" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>10</v>
+      </c>
+      <c r="B82" s="2">
+        <v>36.58</v>
+      </c>
+      <c r="C82" s="2">
+        <v>91.905242503756199</v>
+      </c>
+      <c r="D82" s="2">
+        <v>66.381062292125904</v>
+      </c>
+      <c r="E82" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>15</v>
+      </c>
+      <c r="B83" s="2">
+        <v>54.113226452905799</v>
+      </c>
+      <c r="C83" s="2">
+        <v>87.038005047384004</v>
+      </c>
+      <c r="D83" s="2">
+        <v>52.900927228617398</v>
+      </c>
+      <c r="E83" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>20</v>
+      </c>
+      <c r="B84" s="2">
+        <v>67.734202607823406</v>
+      </c>
+      <c r="C84" s="2">
+        <v>84.704452881799597</v>
+      </c>
+      <c r="D84" s="2">
+        <v>42.626114267193401</v>
+      </c>
+      <c r="E84" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>25</v>
+      </c>
+      <c r="B85" s="2">
+        <v>75.928571428571402</v>
+      </c>
+      <c r="C85" s="2">
+        <v>80.801964103972097</v>
+      </c>
+      <c r="D85" s="2">
+        <v>38.648222969626801</v>
+      </c>
+      <c r="E85" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>30</v>
+      </c>
+      <c r="B86" s="2">
+        <v>84.674686192468599</v>
+      </c>
+      <c r="C86" s="2">
+        <v>75.798670281350795</v>
+      </c>
+      <c r="D86" s="2">
+        <v>35.817713801202203</v>
+      </c>
+      <c r="E86" s="2">
+        <v>4.3999999999999995</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>35</v>
+      </c>
+      <c r="B87" s="2">
+        <v>87.769313304720995</v>
+      </c>
+      <c r="C87" s="2">
+        <v>72.242448346569503</v>
+      </c>
+      <c r="D87" s="2">
+        <v>36.593299171698099</v>
+      </c>
+      <c r="E87" s="2">
+        <v>6.8000000000000007</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>40</v>
+      </c>
+      <c r="B88" s="2">
+        <v>90.681919642857096</v>
+      </c>
+      <c r="C88" s="2">
+        <v>68.357113545302497</v>
+      </c>
+      <c r="D88" s="2">
+        <v>38.012457224672104</v>
+      </c>
+      <c r="E88" s="2">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>45</v>
+      </c>
+      <c r="B89" s="2">
+        <v>92.516666666666595</v>
+      </c>
+      <c r="C89" s="2">
+        <v>65.915969596511104</v>
+      </c>
+      <c r="D89" s="2">
+        <v>39.016742128294403</v>
+      </c>
+      <c r="E89" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>50</v>
+      </c>
+      <c r="B90" s="2">
+        <v>93.950777202072501</v>
+      </c>
+      <c r="C90" s="2">
+        <v>63.678346138100494</v>
+      </c>
+      <c r="D90" s="2">
+        <v>40.173698893828501</v>
+      </c>
+      <c r="E90" s="2">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>55</v>
+      </c>
+      <c r="B91" s="2">
+        <v>94.519662921348299</v>
+      </c>
+      <c r="C91" s="2">
+        <v>62.839465814728399</v>
+      </c>
+      <c r="D91" s="2">
+        <v>40.604348730342799</v>
+      </c>
+      <c r="E91" s="2">
+        <v>28.799999999999997</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>60</v>
+      </c>
+      <c r="B92" s="2">
+        <v>95.748502994011901</v>
+      </c>
+      <c r="C92" s="2">
+        <v>58.494989146208496</v>
+      </c>
+      <c r="D92" s="2">
+        <v>43.991923565995499</v>
+      </c>
+      <c r="E92" s="2">
+        <v>33.200000000000003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>65</v>
+      </c>
+      <c r="B93" s="2">
+        <v>95.908424908424905</v>
+      </c>
+      <c r="C93" s="2">
+        <v>58.422436690770496</v>
+      </c>
+      <c r="D93" s="2">
+        <v>43.967961176760198</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45.4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>70</v>
+      </c>
+      <c r="B94" s="2">
+        <v>96.516393442622899</v>
+      </c>
+      <c r="C94" s="2">
+        <v>56.321230707775008</v>
+      </c>
+      <c r="D94" s="2">
+        <v>45.640779378356399</v>
+      </c>
+      <c r="E94" s="2">
+        <v>51.2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>75</v>
+      </c>
+      <c r="B95" s="2">
+        <v>96.758373205741606</v>
+      </c>
+      <c r="C95" s="2">
+        <v>55.891968150896595</v>
+      </c>
+      <c r="D95" s="2">
+        <v>45.919840864521198</v>
+      </c>
+      <c r="E95" s="2">
+        <v>58.199999999999996</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>80</v>
+      </c>
+      <c r="B96" s="2">
+        <v>97.079646017699105</v>
+      </c>
+      <c r="C96" s="2">
+        <v>54.225663716813997</v>
+      </c>
+      <c r="D96" s="2">
+        <v>47.357917612969004</v>
+      </c>
+      <c r="E96" s="2">
+        <v>66.100000000000009</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>85</v>
+      </c>
+      <c r="B97" s="2">
+        <v>97.328671328671305</v>
+      </c>
+      <c r="C97" s="2">
+        <v>52.886982065553397</v>
+      </c>
+      <c r="D97" s="2">
+        <v>48.5258030497641</v>
+      </c>
+      <c r="E97" s="2">
+        <v>71.399999999999991</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>90</v>
+      </c>
+      <c r="B98" s="2">
+        <v>97.4947916666666</v>
+      </c>
+      <c r="C98" s="2">
+        <v>52.444733796296298</v>
+      </c>
+      <c r="D98" s="2">
+        <v>48.869116045162905</v>
+      </c>
+      <c r="E98" s="2">
+        <v>80.800000000000011</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>95</v>
+      </c>
+      <c r="B99" s="2">
+        <v>97.605095541401198</v>
+      </c>
+      <c r="C99" s="2">
+        <v>52.043170559094101</v>
+      </c>
+      <c r="D99" s="2">
+        <v>49.203213653021699</v>
+      </c>
+      <c r="E99" s="2">
+        <v>84.3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>5</v>
+      </c>
+      <c r="B113" s="2">
+        <v>21.913</v>
+      </c>
+      <c r="C113" s="2">
+        <v>89.926268476903701</v>
+      </c>
+      <c r="D113" s="2">
+        <v>80.294456788655992</v>
+      </c>
+      <c r="E113" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>2.4169999999999998</v>
-      </c>
-      <c r="C3">
-        <v>97.9714148956337</v>
-      </c>
-      <c r="D3">
-        <v>97.632030901972499</v>
-      </c>
-      <c r="E3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>10</v>
+      </c>
+      <c r="B114" s="2">
+        <v>61.302999999999997</v>
+      </c>
+      <c r="C114" s="2">
+        <v>83.227677170427</v>
+      </c>
+      <c r="D114" s="2">
+        <v>48.978937064213</v>
+      </c>
+      <c r="E114" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>7.5419999999999989</v>
-      </c>
-      <c r="C4">
-        <v>97.860171131481906</v>
-      </c>
-      <c r="D4">
-        <v>92.619385893263598</v>
-      </c>
-      <c r="E4">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>15</v>
+      </c>
+      <c r="B115" s="2">
+        <v>72.415999999999997</v>
+      </c>
+      <c r="C115" s="2">
+        <v>79.405587823691405</v>
+      </c>
+      <c r="D115" s="2">
+        <v>42.497649521595498</v>
+      </c>
+      <c r="E115" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>11.128999999999998</v>
-      </c>
-      <c r="C5">
-        <v>97.774766321315994</v>
-      </c>
-      <c r="D5">
-        <v>89.118646256100703</v>
-      </c>
-      <c r="E5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>20</v>
+      </c>
+      <c r="B116" s="2">
+        <v>81.712000000000003</v>
+      </c>
+      <c r="C116" s="2">
+        <v>73.071174445044193</v>
+      </c>
+      <c r="D116" s="2">
+        <v>40.292081937465404</v>
+      </c>
+      <c r="E116" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>20</v>
-      </c>
-      <c r="B6">
-        <v>16.550999999999998</v>
-      </c>
-      <c r="C6">
-        <v>97.631897152644498</v>
-      </c>
-      <c r="D6">
-        <v>83.840944702265801</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
         <v>25</v>
       </c>
-      <c r="B7">
-        <v>20.251000000000001</v>
-      </c>
-      <c r="C7">
-        <v>97.523382187812402</v>
-      </c>
-      <c r="D7">
-        <v>80.250539873146096</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="B117" s="2">
+        <v>85.691382765531003</v>
+      </c>
+      <c r="C117" s="2">
+        <v>70.505735467770108</v>
+      </c>
+      <c r="D117" s="2">
+        <v>39.582660348660298</v>
+      </c>
+      <c r="E117" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
         <v>30</v>
       </c>
-      <c r="B8">
-        <v>25.788</v>
-      </c>
-      <c r="C8">
-        <v>97.341042574979198</v>
-      </c>
-      <c r="D8">
-        <v>74.897691940764304</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="B118" s="2">
+        <v>89.456211812627203</v>
+      </c>
+      <c r="C118" s="2">
+        <v>66.914243734699397</v>
+      </c>
+      <c r="D118" s="2">
+        <v>40.1410523918696</v>
+      </c>
+      <c r="E118" s="2">
+        <v>1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
         <v>35</v>
       </c>
-      <c r="B9">
-        <v>29.535</v>
-      </c>
-      <c r="C9">
-        <v>97.201572913025601</v>
-      </c>
-      <c r="D9">
-        <v>71.2915154401378</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="B119" s="2">
+        <v>91.134635149023595</v>
+      </c>
+      <c r="C119" s="2">
+        <v>65.937182489418504</v>
+      </c>
+      <c r="D119" s="2">
+        <v>39.908389310722498</v>
+      </c>
+      <c r="E119" s="2">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
         <v>40</v>
       </c>
-      <c r="B10">
-        <v>35.237000000000002</v>
-      </c>
-      <c r="C10">
-        <v>96.958989149726705</v>
-      </c>
-      <c r="D10">
-        <v>65.834560993310802</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="B120" s="2">
+        <v>92.959955506117893</v>
+      </c>
+      <c r="C120" s="2">
+        <v>63.560914942821803</v>
+      </c>
+      <c r="D120" s="2">
+        <v>40.913801749871297</v>
+      </c>
+      <c r="E120" s="2">
+        <v>10.100000000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
         <v>45</v>
       </c>
-      <c r="B11">
-        <v>38.956000000000003</v>
-      </c>
-      <c r="C11">
-        <v>96.776664711463795</v>
-      </c>
-      <c r="D11">
-        <v>62.299682495002095</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="B121" s="2">
+        <v>93.932400932400895</v>
+      </c>
+      <c r="C121" s="2">
+        <v>61.699404101418899</v>
+      </c>
+      <c r="D121" s="2">
+        <v>42.044268366552899</v>
+      </c>
+      <c r="E121" s="2">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
         <v>50</v>
       </c>
-      <c r="B12">
-        <v>44.658000000000001</v>
-      </c>
-      <c r="C12">
-        <v>96.45039178373051</v>
-      </c>
-      <c r="D12">
-        <v>56.9271840372216</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="B122" s="2">
+        <v>94.954794520547907</v>
+      </c>
+      <c r="C122" s="2">
+        <v>60.210954964508204</v>
+      </c>
+      <c r="D122" s="2">
+        <v>42.826811434591399</v>
+      </c>
+      <c r="E122" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
         <v>55</v>
       </c>
-      <c r="B13">
-        <v>48.533999999999999</v>
-      </c>
-      <c r="C13">
-        <v>96.188200196267204</v>
-      </c>
-      <c r="D13">
-        <v>53.316018916743602</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="B123" s="2">
+        <v>95.510699001426502</v>
+      </c>
+      <c r="C123" s="2">
+        <v>58.802124566716998</v>
+      </c>
+      <c r="D123" s="2">
+        <v>43.837679798638902</v>
+      </c>
+      <c r="E123" s="2">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
         <v>60</v>
       </c>
-      <c r="B14">
-        <v>54.186999999999998</v>
-      </c>
-      <c r="C14">
-        <v>95.727474717286896</v>
-      </c>
-      <c r="D14">
-        <v>48.128153274943699</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="B124" s="2">
+        <v>96.192434210526301</v>
+      </c>
+      <c r="C124" s="2">
+        <v>57.184881122283002</v>
+      </c>
+      <c r="D124" s="2">
+        <v>44.992470848080103</v>
+      </c>
+      <c r="E124" s="2">
+        <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
         <v>65</v>
       </c>
-      <c r="B15">
-        <v>58.027999999999999</v>
-      </c>
-      <c r="C15">
-        <v>95.345438398281999</v>
-      </c>
-      <c r="D15">
-        <v>44.672949006244899</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="B125" s="2">
+        <v>96.424603174603106</v>
+      </c>
+      <c r="C125" s="2">
+        <v>56.955889855207097</v>
+      </c>
+      <c r="D125" s="2">
+        <v>45.080509222552401</v>
+      </c>
+      <c r="E125" s="2">
+        <v>49.6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
         <v>70</v>
       </c>
-      <c r="B16">
-        <v>63.847000000000001</v>
-      </c>
-      <c r="C16">
-        <v>94.616634548838292</v>
-      </c>
-      <c r="D16">
-        <v>39.590117339603097</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="B126" s="2">
+        <v>96.887700534759304</v>
+      </c>
+      <c r="C126" s="2">
+        <v>55.177416421113698</v>
+      </c>
+      <c r="D126" s="2">
+        <v>46.539870015094095</v>
+      </c>
+      <c r="E126" s="2">
+        <v>62.6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
         <v>75</v>
       </c>
-      <c r="B17">
-        <v>67.733000000000004</v>
-      </c>
-      <c r="C17">
-        <v>93.987598074332496</v>
-      </c>
-      <c r="D17">
-        <v>36.339380196312298</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="B127" s="2">
+        <v>97.1651090342679</v>
+      </c>
+      <c r="C127" s="2">
+        <v>54.087919695396202</v>
+      </c>
+      <c r="D127" s="2">
+        <v>47.445413853600897</v>
+      </c>
+      <c r="E127" s="2">
+        <v>67.900000000000006</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
         <v>80</v>
       </c>
-      <c r="B18">
-        <v>73.555999999999997</v>
-      </c>
-      <c r="C18">
-        <v>92.710842934888902</v>
-      </c>
-      <c r="D18">
-        <v>31.805612370813002</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="B128" s="2">
+        <v>97.478260869565204</v>
+      </c>
+      <c r="C128" s="2">
+        <v>52.680676328502393</v>
+      </c>
+      <c r="D128" s="2">
+        <v>48.647792900650998</v>
+      </c>
+      <c r="E128" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
         <v>85</v>
       </c>
-      <c r="B19">
-        <v>77.613</v>
-      </c>
-      <c r="C19">
-        <v>91.444446141695408</v>
-      </c>
-      <c r="D19">
-        <v>29.027222016045901</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="B129" s="2">
+        <v>97.571428571428498</v>
+      </c>
+      <c r="C129" s="2">
+        <v>52.264880952380999</v>
+      </c>
+      <c r="D129" s="2">
+        <v>49.004409013605397</v>
+      </c>
+      <c r="E129" s="2">
+        <v>83.2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
         <v>90</v>
       </c>
-      <c r="B20">
-        <v>83.802000000000007</v>
-      </c>
-      <c r="C20">
-        <v>88.3648063005067</v>
-      </c>
-      <c r="D20">
-        <v>25.948525024049303</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="B130" s="2">
+        <v>97.653061224489704</v>
+      </c>
+      <c r="C130" s="2">
+        <v>51.743197278911502</v>
+      </c>
+      <c r="D130" s="2">
+        <v>49.471183881715902</v>
+      </c>
+      <c r="E130" s="2">
+        <v>90.2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
         <v>95</v>
       </c>
-      <c r="B21">
-        <v>88.521000000000001</v>
-      </c>
-      <c r="C21">
-        <v>83.9859469263682</v>
-      </c>
-      <c r="D21">
-        <v>25.6547999213095</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>5</v>
-      </c>
-      <c r="B29">
-        <v>24.71</v>
-      </c>
-      <c r="C29">
-        <v>75.399983790939089</v>
-      </c>
-      <c r="D29">
-        <v>81.368664005258893</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>10</v>
-      </c>
-      <c r="B30">
-        <v>56.243000000000002</v>
-      </c>
-      <c r="C30">
-        <v>73.292150557296097</v>
-      </c>
-      <c r="D30">
-        <v>58.778295762059898</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>15</v>
-      </c>
-      <c r="B31">
-        <v>65.061000000000007</v>
-      </c>
-      <c r="C31">
-        <v>70.122982856697504</v>
-      </c>
-      <c r="D31">
-        <v>54.377286123603895</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>20</v>
-      </c>
-      <c r="B32">
-        <v>72.909000000000006</v>
-      </c>
-      <c r="C32">
-        <v>66.10156792905309</v>
-      </c>
-      <c r="D32">
-        <v>51.806007838606604</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>25</v>
-      </c>
-      <c r="B33">
-        <v>76.412999999999997</v>
-      </c>
-      <c r="C33">
-        <v>64.7175410731965</v>
-      </c>
-      <c r="D33">
-        <v>50.547385339738206</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>30</v>
-      </c>
-      <c r="B34">
-        <v>80.406000000000006</v>
-      </c>
-      <c r="C34">
-        <v>62.730599245168392</v>
-      </c>
-      <c r="D34">
-        <v>49.560834370929804</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>35</v>
-      </c>
-      <c r="B35">
-        <v>81.701999999999998</v>
-      </c>
-      <c r="C35">
-        <v>60.767040330206001</v>
-      </c>
-      <c r="D35">
-        <v>50.352112709415096</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>40</v>
-      </c>
-      <c r="B36">
-        <v>85.144999999999996</v>
-      </c>
-      <c r="C36">
-        <v>58.592688083713895</v>
-      </c>
-      <c r="D36">
-        <v>50.111255731121794</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>45</v>
-      </c>
-      <c r="B37">
-        <v>85.397000000000006</v>
-      </c>
-      <c r="C37">
-        <v>56.857124430173201</v>
-      </c>
-      <c r="D37">
-        <v>51.4457214503649</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>50</v>
-      </c>
-      <c r="B38">
-        <v>87.025999999999996</v>
-      </c>
-      <c r="C38">
-        <v>56.524235026001399</v>
-      </c>
-      <c r="D38">
-        <v>50.809219226271892</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>55</v>
-      </c>
-      <c r="B39">
-        <v>88.759</v>
-      </c>
-      <c r="C39">
-        <v>56.638144055734799</v>
-      </c>
-      <c r="D39">
-        <v>49.728549717570196</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>60</v>
-      </c>
-      <c r="B40">
-        <v>90.608000000000004</v>
-      </c>
-      <c r="C40">
-        <v>53.455442096152808</v>
-      </c>
-      <c r="D40">
-        <v>51.565093025517704</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>65</v>
-      </c>
-      <c r="B41">
-        <v>90.855000000000004</v>
-      </c>
-      <c r="C41">
-        <v>52.939205481088003</v>
-      </c>
-      <c r="D41">
-        <v>51.902084860157402</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>70</v>
-      </c>
-      <c r="B42">
-        <v>91.697999999999993</v>
-      </c>
-      <c r="C42">
-        <v>52.606260878582198</v>
-      </c>
-      <c r="D42">
-        <v>51.761110899557607</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>75</v>
-      </c>
-      <c r="B43">
-        <v>92.147000000000006</v>
-      </c>
-      <c r="C43">
-        <v>53.351372524801398</v>
-      </c>
-      <c r="D43">
-        <v>50.838310759571101</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>80</v>
-      </c>
-      <c r="B44">
-        <v>93.230999999999995</v>
-      </c>
-      <c r="C44">
-        <v>52.684263887326999</v>
-      </c>
-      <c r="D44">
-        <v>50.881933935206106</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>85</v>
-      </c>
-      <c r="B45">
-        <v>94.186000000000007</v>
-      </c>
-      <c r="C45">
-        <v>52.520069591243001</v>
-      </c>
-      <c r="D45">
-        <v>50.533447254791795</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>90</v>
-      </c>
-      <c r="B46">
-        <v>95.503</v>
-      </c>
-      <c r="C46">
-        <v>51.383495464852402</v>
-      </c>
-      <c r="D46">
-        <v>50.927220326202004</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>95</v>
-      </c>
-      <c r="B47">
-        <v>96.228999999999999</v>
-      </c>
-      <c r="C47">
-        <v>52.124722222221799</v>
-      </c>
-      <c r="D47">
-        <v>49.840901052778101</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>5</v>
-      </c>
-      <c r="B53" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B54" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" t="s">
-        <v>1</v>
-      </c>
-      <c r="E54" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>5</v>
-      </c>
-      <c r="B55">
-        <v>14.022</v>
-      </c>
-      <c r="C55">
-        <v>83.760987959907794</v>
-      </c>
-      <c r="D55">
-        <v>88.255034268261696</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>10</v>
-      </c>
-      <c r="B56">
-        <v>43.075000000000003</v>
-      </c>
-      <c r="C56">
-        <v>88.264487297482603</v>
-      </c>
-      <c r="D56">
-        <v>61.980072096609298</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>15</v>
-      </c>
-      <c r="B57">
-        <v>62.484999999999999</v>
-      </c>
-      <c r="C57">
-        <v>79.866260123426898</v>
-      </c>
-      <c r="D57">
-        <v>50.095567361876604</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>20</v>
-      </c>
-      <c r="B58">
-        <v>75.727999999999994</v>
-      </c>
-      <c r="C58">
-        <v>77.863521015612406</v>
-      </c>
-      <c r="D58">
-        <v>41.035512805296996</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>25</v>
-      </c>
-      <c r="B59">
-        <v>81.562124248497</v>
-      </c>
-      <c r="C59">
-        <v>73.214540817880604</v>
-      </c>
-      <c r="D59">
-        <v>40.284665250153601</v>
-      </c>
-      <c r="E59">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>30</v>
-      </c>
-      <c r="B60">
-        <v>86.861306532663306</v>
-      </c>
-      <c r="C60">
-        <v>69.685189500525297</v>
-      </c>
-      <c r="D60">
-        <v>39.470533940081296</v>
-      </c>
-      <c r="E60">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>35</v>
-      </c>
-      <c r="B61">
-        <v>89.287449392712503</v>
-      </c>
-      <c r="C61">
-        <v>68.128576639974199</v>
-      </c>
-      <c r="D61">
-        <v>39.169731610607499</v>
-      </c>
-      <c r="E61">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>40</v>
-      </c>
-      <c r="B62">
-        <v>91.667370644139297</v>
-      </c>
-      <c r="C62">
-        <v>65.516363396085694</v>
-      </c>
-      <c r="D62">
-        <v>39.942872333148799</v>
-      </c>
-      <c r="E62">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>45</v>
-      </c>
-      <c r="B63">
-        <v>92.890271493212595</v>
-      </c>
-      <c r="C63">
-        <v>64.343031193824501</v>
-      </c>
-      <c r="D63">
-        <v>40.231583637093799</v>
-      </c>
-      <c r="E63">
-        <v>11.600000000000001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>50</v>
-      </c>
-      <c r="B64">
-        <v>94.3634175691937</v>
-      </c>
-      <c r="C64">
-        <v>61.859021218468598</v>
-      </c>
-      <c r="D64">
-        <v>41.627713503400201</v>
-      </c>
-      <c r="E64">
-        <v>16.900000000000002</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>55</v>
-      </c>
-      <c r="B65">
-        <v>94.959514170040407</v>
-      </c>
-      <c r="C65">
-        <v>60.244869111703302</v>
-      </c>
-      <c r="D65">
-        <v>42.791764979149697</v>
-      </c>
-      <c r="E65">
-        <v>25.900000000000002</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>60</v>
-      </c>
-      <c r="B66">
-        <v>95.638400000000004</v>
-      </c>
-      <c r="C66">
-        <v>58.593159715480802</v>
-      </c>
-      <c r="D66">
-        <v>43.9624395386695</v>
-      </c>
-      <c r="E66">
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>65</v>
-      </c>
-      <c r="B67">
-        <v>96.177024482109204</v>
-      </c>
-      <c r="C67">
-        <v>57.957285487955204</v>
-      </c>
-      <c r="D67">
-        <v>44.2584073470832</v>
-      </c>
-      <c r="E67">
-        <v>46.9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>70</v>
-      </c>
-      <c r="B68">
-        <v>96.552825552825496</v>
-      </c>
-      <c r="C68">
-        <v>55.962117807355803</v>
-      </c>
-      <c r="D68">
-        <v>45.966994017797006</v>
-      </c>
-      <c r="E68">
-        <v>59.3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>75</v>
-      </c>
-      <c r="B69">
-        <v>96.809523809523796</v>
-      </c>
-      <c r="C69">
-        <v>55.7066397987765</v>
-      </c>
-      <c r="D69">
-        <v>46.070667280517704</v>
-      </c>
-      <c r="E69">
-        <v>64.3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>80</v>
-      </c>
-      <c r="B70">
-        <v>97.0390625</v>
-      </c>
-      <c r="C70">
-        <v>54.772649163832199</v>
-      </c>
-      <c r="D70">
-        <v>46.849134745003099</v>
-      </c>
-      <c r="E70">
-        <v>74.400000000000006</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>85</v>
-      </c>
-      <c r="B71">
-        <v>97.335051546391696</v>
-      </c>
-      <c r="C71">
-        <v>53.599942726231397</v>
-      </c>
-      <c r="D71">
-        <v>47.828468118586102</v>
-      </c>
-      <c r="E71">
-        <v>80.600000000000009</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>90</v>
-      </c>
-      <c r="B72">
-        <v>97.743902439024396</v>
-      </c>
-      <c r="C72">
-        <v>51.168021680216803</v>
-      </c>
-      <c r="D72">
-        <v>49.986378808909997</v>
-      </c>
-      <c r="E72">
-        <v>91.8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>95</v>
-      </c>
-      <c r="B73">
-        <v>97.764705882352899</v>
-      </c>
-      <c r="C73">
-        <v>51.307189542483599</v>
-      </c>
-      <c r="D73">
-        <v>49.839677047289499</v>
-      </c>
-      <c r="E73">
-        <v>98.3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>6</v>
-      </c>
-      <c r="B79" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B80" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" t="s">
-        <v>1</v>
-      </c>
-      <c r="E80" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>5</v>
-      </c>
-      <c r="B81">
-        <v>18.888000000000002</v>
-      </c>
-      <c r="C81">
-        <v>89.128018147972</v>
-      </c>
-      <c r="D81">
-        <v>83.165499932210992</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>10</v>
-      </c>
-      <c r="B82">
-        <v>36.58</v>
-      </c>
-      <c r="C82">
-        <v>91.905242503756199</v>
-      </c>
-      <c r="D82">
-        <v>66.381062292125904</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>15</v>
-      </c>
-      <c r="B83">
-        <v>54.113226452905799</v>
-      </c>
-      <c r="C83">
-        <v>87.038005047384004</v>
-      </c>
-      <c r="D83">
-        <v>52.900927228617398</v>
-      </c>
-      <c r="E83">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>20</v>
-      </c>
-      <c r="B84">
-        <v>67.734202607823406</v>
-      </c>
-      <c r="C84">
-        <v>84.704452881799597</v>
-      </c>
-      <c r="D84">
-        <v>42.626114267193401</v>
-      </c>
-      <c r="E84">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>25</v>
-      </c>
-      <c r="B85">
-        <v>75.928571428571402</v>
-      </c>
-      <c r="C85">
-        <v>80.801964103972097</v>
-      </c>
-      <c r="D85">
-        <v>38.648222969626801</v>
-      </c>
-      <c r="E85">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>30</v>
-      </c>
-      <c r="B86">
-        <v>84.674686192468599</v>
-      </c>
-      <c r="C86">
-        <v>75.798670281350795</v>
-      </c>
-      <c r="D86">
-        <v>35.817713801202203</v>
-      </c>
-      <c r="E86">
-        <v>4.3999999999999995</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>35</v>
-      </c>
-      <c r="B87">
-        <v>87.769313304720995</v>
-      </c>
-      <c r="C87">
-        <v>72.242448346569503</v>
-      </c>
-      <c r="D87">
-        <v>36.593299171698099</v>
-      </c>
-      <c r="E87">
-        <v>6.8000000000000007</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>40</v>
-      </c>
-      <c r="B88">
-        <v>90.681919642857096</v>
-      </c>
-      <c r="C88">
-        <v>68.357113545302497</v>
-      </c>
-      <c r="D88">
-        <v>38.012457224672104</v>
-      </c>
-      <c r="E88">
-        <v>10.4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>45</v>
-      </c>
-      <c r="B89">
-        <v>92.516666666666595</v>
-      </c>
-      <c r="C89">
-        <v>65.915969596511104</v>
-      </c>
-      <c r="D89">
-        <v>39.016742128294403</v>
-      </c>
-      <c r="E89">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>50</v>
-      </c>
-      <c r="B90">
-        <v>93.950777202072501</v>
-      </c>
-      <c r="C90">
-        <v>63.678346138100494</v>
-      </c>
-      <c r="D90">
-        <v>40.173698893828501</v>
-      </c>
-      <c r="E90">
-        <v>22.8</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>55</v>
-      </c>
-      <c r="B91">
-        <v>94.519662921348299</v>
-      </c>
-      <c r="C91">
-        <v>62.839465814728399</v>
-      </c>
-      <c r="D91">
-        <v>40.604348730342799</v>
-      </c>
-      <c r="E91">
-        <v>28.799999999999997</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>60</v>
-      </c>
-      <c r="B92">
-        <v>95.748502994011901</v>
-      </c>
-      <c r="C92">
-        <v>58.494989146208496</v>
-      </c>
-      <c r="D92">
-        <v>43.991923565995499</v>
-      </c>
-      <c r="E92">
-        <v>33.200000000000003</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>65</v>
-      </c>
-      <c r="B93">
-        <v>95.908424908424905</v>
-      </c>
-      <c r="C93">
-        <v>58.422436690770496</v>
-      </c>
-      <c r="D93">
-        <v>43.967961176760198</v>
-      </c>
-      <c r="E93">
-        <v>45.4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>70</v>
-      </c>
-      <c r="B94">
-        <v>96.516393442622899</v>
-      </c>
-      <c r="C94">
-        <v>56.321230707775008</v>
-      </c>
-      <c r="D94">
-        <v>45.640779378356399</v>
-      </c>
-      <c r="E94">
-        <v>51.2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>75</v>
-      </c>
-      <c r="B95">
-        <v>96.758373205741606</v>
-      </c>
-      <c r="C95">
-        <v>55.891968150896595</v>
-      </c>
-      <c r="D95">
-        <v>45.919840864521198</v>
-      </c>
-      <c r="E95">
-        <v>58.199999999999996</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>80</v>
-      </c>
-      <c r="B96">
-        <v>97.079646017699105</v>
-      </c>
-      <c r="C96">
-        <v>54.225663716813997</v>
-      </c>
-      <c r="D96">
-        <v>47.357917612969004</v>
-      </c>
-      <c r="E96">
-        <v>66.100000000000009</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>85</v>
-      </c>
-      <c r="B97">
-        <v>97.328671328671305</v>
-      </c>
-      <c r="C97">
-        <v>52.886982065553397</v>
-      </c>
-      <c r="D97">
-        <v>48.5258030497641</v>
-      </c>
-      <c r="E97">
-        <v>71.399999999999991</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>90</v>
-      </c>
-      <c r="B98">
-        <v>97.4947916666666</v>
-      </c>
-      <c r="C98">
-        <v>52.444733796296298</v>
-      </c>
-      <c r="D98">
-        <v>48.869116045162905</v>
-      </c>
-      <c r="E98">
-        <v>80.800000000000011</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>95</v>
-      </c>
-      <c r="B99">
-        <v>97.605095541401198</v>
-      </c>
-      <c r="C99">
-        <v>52.043170559094101</v>
-      </c>
-      <c r="D99">
-        <v>49.203213653021699</v>
-      </c>
-      <c r="E99">
-        <v>84.3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>7</v>
-      </c>
-      <c r="B111" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>10</v>
-      </c>
-      <c r="B112" t="s">
-        <v>8</v>
-      </c>
-      <c r="C112" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" t="s">
-        <v>1</v>
-      </c>
-      <c r="E112" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>5</v>
-      </c>
-      <c r="B113">
-        <v>21.913</v>
-      </c>
-      <c r="C113">
-        <v>89.926268476903701</v>
-      </c>
-      <c r="D113">
-        <v>80.294456788655992</v>
-      </c>
-      <c r="E113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>10</v>
-      </c>
-      <c r="B114">
-        <v>61.302999999999997</v>
-      </c>
-      <c r="C114">
-        <v>83.227677170427</v>
-      </c>
-      <c r="D114">
-        <v>48.978937064213</v>
-      </c>
-      <c r="E114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>15</v>
-      </c>
-      <c r="B115">
-        <v>72.415999999999997</v>
-      </c>
-      <c r="C115">
-        <v>79.405587823691405</v>
-      </c>
-      <c r="D115">
-        <v>42.497649521595498</v>
-      </c>
-      <c r="E115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>20</v>
-      </c>
-      <c r="B116">
-        <v>81.712000000000003</v>
-      </c>
-      <c r="C116">
-        <v>73.071174445044193</v>
-      </c>
-      <c r="D116">
-        <v>40.292081937465404</v>
-      </c>
-      <c r="E116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>25</v>
-      </c>
-      <c r="B117">
-        <v>85.691382765531003</v>
-      </c>
-      <c r="C117">
-        <v>70.505735467770108</v>
-      </c>
-      <c r="D117">
-        <v>39.582660348660298</v>
-      </c>
-      <c r="E117">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>30</v>
-      </c>
-      <c r="B118">
-        <v>89.456211812627203</v>
-      </c>
-      <c r="C118">
-        <v>66.914243734699397</v>
-      </c>
-      <c r="D118">
-        <v>40.1410523918696</v>
-      </c>
-      <c r="E118">
-        <v>1.7999999999999998</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>35</v>
-      </c>
-      <c r="B119">
-        <v>91.134635149023595</v>
-      </c>
-      <c r="C119">
-        <v>65.937182489418504</v>
-      </c>
-      <c r="D119">
-        <v>39.908389310722498</v>
-      </c>
-      <c r="E119">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>40</v>
-      </c>
-      <c r="B120">
-        <v>92.959955506117893</v>
-      </c>
-      <c r="C120">
-        <v>63.560914942821803</v>
-      </c>
-      <c r="D120">
-        <v>40.913801749871297</v>
-      </c>
-      <c r="E120">
-        <v>10.100000000000001</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>45</v>
-      </c>
-      <c r="B121">
-        <v>93.932400932400895</v>
-      </c>
-      <c r="C121">
-        <v>61.699404101418899</v>
-      </c>
-      <c r="D121">
-        <v>42.044268366552899</v>
-      </c>
-      <c r="E121">
-        <v>14.2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>50</v>
-      </c>
-      <c r="B122">
-        <v>94.954794520547907</v>
-      </c>
-      <c r="C122">
-        <v>60.210954964508204</v>
-      </c>
-      <c r="D122">
-        <v>42.826811434591399</v>
-      </c>
-      <c r="E122">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>55</v>
-      </c>
-      <c r="B123">
-        <v>95.510699001426502</v>
-      </c>
-      <c r="C123">
-        <v>58.802124566716998</v>
-      </c>
-      <c r="D123">
-        <v>43.837679798638902</v>
-      </c>
-      <c r="E123">
-        <v>29.9</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>60</v>
-      </c>
-      <c r="B124">
-        <v>96.192434210526301</v>
-      </c>
-      <c r="C124">
-        <v>57.184881122283002</v>
-      </c>
-      <c r="D124">
-        <v>44.992470848080103</v>
-      </c>
-      <c r="E124">
-        <v>39.200000000000003</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>65</v>
-      </c>
-      <c r="B125">
-        <v>96.424603174603106</v>
-      </c>
-      <c r="C125">
-        <v>56.955889855207097</v>
-      </c>
-      <c r="D125">
-        <v>45.080509222552401</v>
-      </c>
-      <c r="E125">
-        <v>49.6</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>70</v>
-      </c>
-      <c r="B126">
-        <v>96.887700534759304</v>
-      </c>
-      <c r="C126">
-        <v>55.177416421113698</v>
-      </c>
-      <c r="D126">
-        <v>46.539870015094095</v>
-      </c>
-      <c r="E126">
-        <v>62.6</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>75</v>
-      </c>
-      <c r="B127">
-        <v>97.1651090342679</v>
-      </c>
-      <c r="C127">
-        <v>54.087919695396202</v>
-      </c>
-      <c r="D127">
-        <v>47.445413853600897</v>
-      </c>
-      <c r="E127">
-        <v>67.900000000000006</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>80</v>
-      </c>
-      <c r="B128">
-        <v>97.478260869565204</v>
-      </c>
-      <c r="C128">
-        <v>52.680676328502393</v>
-      </c>
-      <c r="D128">
-        <v>48.647792900650998</v>
-      </c>
-      <c r="E128">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>85</v>
-      </c>
-      <c r="B129">
-        <v>97.571428571428498</v>
-      </c>
-      <c r="C129">
-        <v>52.264880952380999</v>
-      </c>
-      <c r="D129">
-        <v>49.004409013605397</v>
-      </c>
-      <c r="E129">
-        <v>83.2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>90</v>
-      </c>
-      <c r="B130">
-        <v>97.653061224489704</v>
-      </c>
-      <c r="C130">
-        <v>51.743197278911502</v>
-      </c>
-      <c r="D130">
-        <v>49.471183881715902</v>
-      </c>
-      <c r="E130">
-        <v>90.2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>95</v>
-      </c>
-      <c r="B131">
+      <c r="B131" s="2">
         <v>97.84</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="2">
         <v>50.9444444444444</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="2">
         <v>50.155955555555501</v>
       </c>
-      <c r="E131">
+      <c r="E131" s="2">
         <v>95</v>
       </c>
     </row>
